--- a/test_file.xlsx
+++ b/test_file.xlsx
@@ -19,29 +19,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="249" count="249">
-  <si>
-    <t>PE INGENIO SAPI DE CV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="251" count="251">
+  <si>
+    <t>xxxxxxxxxxxxx</t>
   </si>
   <si>
     <t>Dirección:</t>
   </si>
   <si>
-    <t>PEDREGAL 24 PISO 3 COLONIA MOL</t>
+    <t>xxxxxxxxxxxxxxx</t>
   </si>
   <si>
     <t>Reg. fed.</t>
   </si>
   <si>
-    <t>PIN120724TA6</t>
+    <t>xxxxxxxxxxx</t>
   </si>
   <si>
     <t>Población</t>
   </si>
   <si>
-    <t>MIGUEL HIDALGO CDMX</t>
-  </si>
-  <si>
     <t>Cedula:</t>
   </si>
   <si>
@@ -222,6 +219,12 @@
     <t>Pág.</t>
   </si>
   <si>
+    <t>xxxxxxxx</t>
+  </si>
+  <si>
+    <t>xxxxxxxxx</t>
+  </si>
+  <si>
     <t>3,400,127.31</t>
   </si>
   <si>
@@ -352,6 +355,9 @@
   </si>
   <si>
     <t>86,876.89</t>
+  </si>
+  <si>
+    <t>xxxxxxxxxxxx</t>
   </si>
   <si>
     <t>54,473.60</t>
@@ -938,14 +944,13 @@
   </sheetPr>
   <dimension ref="B3:P422"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0" tabSelected="1">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A361" workbookViewId="0" tabSelected="1">
+      <selection activeCell="F361" sqref="F361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.142307692307693"/>
-    <col min="2" max="16384" style="1" width="9.142307692307693"/>
+    <col min="1" max="16384" style="1" width="9.142307692307693"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:16" ht="18.75">
@@ -972,43 +977,43 @@
         <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="20.75">
       <c r="H7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:16">
       <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:16">
       <c r="B11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="L11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="M11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="N11" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:16">
@@ -1018,16 +1023,16 @@
         </is>
       </c>
       <c r="K13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="M13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="P13" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="14" spans="2:16">
@@ -1037,16 +1042,16 @@
         </is>
       </c>
       <c r="K14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="M14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="M14" s="8" t="s">
+      <c r="P14" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:16">
@@ -1056,16 +1061,16 @@
         </is>
       </c>
       <c r="K15" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:16">
@@ -1075,16 +1080,16 @@
         </is>
       </c>
       <c r="K16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="M16" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="2:16">
@@ -1094,16 +1099,16 @@
         </is>
       </c>
       <c r="K17" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:16">
@@ -1113,16 +1118,16 @@
         </is>
       </c>
       <c r="K18" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="2:16">
@@ -1132,16 +1137,16 @@
         </is>
       </c>
       <c r="K19" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="2:16">
@@ -1232,16 +1237,16 @@
         </is>
       </c>
       <c r="K23" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="2:16">
@@ -1305,16 +1310,16 @@
         </is>
       </c>
       <c r="K26" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P26" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="2:16">
@@ -1324,16 +1329,16 @@
         </is>
       </c>
       <c r="K27" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P27" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="2:16">
@@ -1343,16 +1348,16 @@
         </is>
       </c>
       <c r="K28" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P28" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="2:16">
@@ -1362,16 +1367,16 @@
         </is>
       </c>
       <c r="K29" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P29" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="2:16">
@@ -1381,16 +1386,16 @@
         </is>
       </c>
       <c r="K30" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P30" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="2:16">
@@ -1400,16 +1405,16 @@
         </is>
       </c>
       <c r="K31" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P31" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="2:16">
@@ -1532,10 +1537,10 @@
         </is>
       </c>
       <c r="L36" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P36" s="8" t="inlineStr">
         <is>
@@ -1550,16 +1555,16 @@
         </is>
       </c>
       <c r="K37" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P37" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="2:16">
@@ -1574,10 +1579,10 @@
         </is>
       </c>
       <c r="L38" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P38" s="8" t="inlineStr">
         <is>
@@ -1592,16 +1597,16 @@
         </is>
       </c>
       <c r="K39" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L39" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L39" s="8" t="s">
+      <c r="M39" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="M39" s="8" t="s">
+      <c r="P39" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="P39" s="8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="40" spans="2:16">
@@ -1611,16 +1616,16 @@
         </is>
       </c>
       <c r="K40" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L40" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L40" s="8" t="s">
+      <c r="M40" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="M40" s="8" t="s">
+      <c r="P40" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="P40" s="8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="41" spans="2:16">
@@ -1630,16 +1635,16 @@
         </is>
       </c>
       <c r="K41" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L41" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L41" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="M41" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P41" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="P41" s="8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="42" spans="2:16">
@@ -1649,16 +1654,16 @@
         </is>
       </c>
       <c r="K42" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L42" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L42" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="M42" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P42" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="P42" s="8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="43" spans="2:16">
@@ -1668,16 +1673,16 @@
         </is>
       </c>
       <c r="K43" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L43" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="L43" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="M43" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P43" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="P43" s="8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="44" spans="2:16">
@@ -1687,16 +1692,16 @@
         </is>
       </c>
       <c r="K44" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M44" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="L44" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M44" s="8" t="s">
-        <v>37</v>
-      </c>
       <c r="P44" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="2:16">
@@ -1706,16 +1711,16 @@
         </is>
       </c>
       <c r="K45" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M45" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="L45" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M45" s="8" t="s">
-        <v>37</v>
-      </c>
       <c r="P45" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="2:16">
@@ -1725,16 +1730,16 @@
         </is>
       </c>
       <c r="K46" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P46" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="2:16">
@@ -1749,10 +1754,10 @@
         </is>
       </c>
       <c r="L47" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P47" s="8" t="inlineStr">
         <is>
@@ -1767,16 +1772,16 @@
         </is>
       </c>
       <c r="K48" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P48" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="2:16">
@@ -1786,16 +1791,16 @@
         </is>
       </c>
       <c r="K49" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P49" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="2:16">
@@ -1805,16 +1810,16 @@
         </is>
       </c>
       <c r="K50" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M50" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P50" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="L50" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M50" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="P50" s="8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="51" spans="2:16">
@@ -1824,16 +1829,16 @@
         </is>
       </c>
       <c r="K51" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M51" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P51" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="L51" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M51" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="P51" s="8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="52" spans="2:16">
@@ -1848,10 +1853,10 @@
         </is>
       </c>
       <c r="L52" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M52" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P52" s="8" t="inlineStr">
         <is>
@@ -1866,16 +1871,16 @@
         </is>
       </c>
       <c r="K53" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P53" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="2:16">
@@ -1885,16 +1890,16 @@
         </is>
       </c>
       <c r="K54" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M54" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P54" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="2:16">
@@ -1904,16 +1909,16 @@
         </is>
       </c>
       <c r="K55" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P55" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="2:16">
@@ -1923,16 +1928,16 @@
         </is>
       </c>
       <c r="K56" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M56" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P56" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="2:16">
@@ -1942,16 +1947,16 @@
         </is>
       </c>
       <c r="K57" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L57" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M57" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P57" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="L57" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M57" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="P57" s="8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="58" spans="2:16">
@@ -1961,16 +1966,16 @@
         </is>
       </c>
       <c r="K58" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L58" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M58" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P58" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="L58" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M58" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="P58" s="8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="59" spans="2:16">
@@ -1980,16 +1985,16 @@
         </is>
       </c>
       <c r="K59" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L59" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L59" s="8" t="s">
+      <c r="M59" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="M59" s="8" t="s">
+      <c r="P59" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="P59" s="8" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="60" spans="2:16">
@@ -1999,16 +2004,16 @@
         </is>
       </c>
       <c r="K60" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L60" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L60" s="8" t="s">
+      <c r="M60" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="M60" s="8" t="s">
+      <c r="P60" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="P60" s="8" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="61" spans="2:16">
@@ -2018,16 +2023,16 @@
         </is>
       </c>
       <c r="K61" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P61" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="2:16">
@@ -2037,16 +2042,16 @@
         </is>
       </c>
       <c r="K62" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L62" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M62" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P62" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="2:16">
@@ -2061,13 +2066,13 @@
         </is>
       </c>
       <c r="L63" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M63" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="P63" s="8" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="64" spans="2:16">
@@ -2077,16 +2082,16 @@
         </is>
       </c>
       <c r="K64" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L64" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M64" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P64" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="2:16">
@@ -2096,16 +2101,16 @@
         </is>
       </c>
       <c r="K65" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M65" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P65" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="2:16">
@@ -2115,16 +2120,16 @@
         </is>
       </c>
       <c r="K66" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L66" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M66" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P66" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="2:16">
@@ -2134,16 +2139,16 @@
         </is>
       </c>
       <c r="K67" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P67" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="2:16">
@@ -2153,16 +2158,16 @@
         </is>
       </c>
       <c r="K68" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L68" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="L68" s="8" t="s">
+      <c r="M68" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P68" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="M68" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="P68" s="8" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="69" spans="2:16">
@@ -2172,36 +2177,36 @@
         </is>
       </c>
       <c r="K69" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L69" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="L69" s="8" t="s">
+      <c r="M69" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P69" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="M69" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="P69" s="8" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="70" spans="2:16">
       <c r="B70" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C70" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="G70" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G70" s="6" t="s">
+      <c r="H70" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H70" s="9" t="s">
+      <c r="I70" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="I70" s="9" t="s">
+      <c r="N70" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="N70" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="P70" s="10" t="inlineStr">
         <is>
@@ -2211,7 +2216,7 @@
     </row>
     <row r="73" spans="2:16" ht="18.75">
       <c r="H73" s="2" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74" spans="2:16">
@@ -2219,57 +2224,61 @@
         <v>1</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="L74" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M74" s="4" t="s">
-        <v>4</v>
+      <c r="M74" s="4" t="inlineStr">
+        <is>
+          <t>xxx</t>
+        </is>
       </c>
     </row>
     <row r="76" spans="2:16">
       <c r="B76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" s="4" t="inlineStr">
+        <is>
+          <t>xx</t>
+        </is>
+      </c>
+      <c r="L76" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="77" spans="2:16" ht="20.75">
       <c r="H77" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N77" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="N77" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="80" spans="2:16">
       <c r="B80" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="81" spans="2:16">
       <c r="B81" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I81" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I81" s="6" t="s">
+      <c r="L81" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L81" s="6" t="s">
+      <c r="M81" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M81" s="6" t="s">
+      <c r="N81" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="N81" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="82" spans="2:16">
@@ -2279,16 +2288,16 @@
         </is>
       </c>
       <c r="K82" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L82" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M82" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P82" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" spans="2:16">
@@ -2298,16 +2307,16 @@
         </is>
       </c>
       <c r="K83" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L83" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M83" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P83" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" spans="2:16">
@@ -2322,7 +2331,7 @@
         </is>
       </c>
       <c r="L85" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M85" s="8" t="inlineStr">
         <is>
@@ -2342,16 +2351,16 @@
         </is>
       </c>
       <c r="K86" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L86" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M86" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P86" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="87" spans="2:16">
@@ -2361,16 +2370,16 @@
         </is>
       </c>
       <c r="K87" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M87" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P87" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="88" spans="2:16">
@@ -2380,16 +2389,16 @@
         </is>
       </c>
       <c r="K88" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L88" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M88" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P88" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89" spans="2:16">
@@ -2399,16 +2408,16 @@
         </is>
       </c>
       <c r="K89" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L89" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M89" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P89" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="90" spans="2:16">
@@ -2418,16 +2427,16 @@
         </is>
       </c>
       <c r="K90" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L90" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M90" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P90" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="91" spans="2:16">
@@ -2437,16 +2446,16 @@
         </is>
       </c>
       <c r="K91" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L91" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M91" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P91" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="92" spans="2:16">
@@ -2456,16 +2465,16 @@
         </is>
       </c>
       <c r="K92" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L92" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M92" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P92" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="93" spans="2:16">
@@ -2475,16 +2484,16 @@
         </is>
       </c>
       <c r="K93" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L93" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M93" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P93" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94" spans="2:16">
@@ -2494,16 +2503,16 @@
         </is>
       </c>
       <c r="K94" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L94" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M94" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P94" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="95" spans="2:16">
@@ -2513,16 +2522,16 @@
         </is>
       </c>
       <c r="K95" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L95" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M95" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P95" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="96" spans="2:16">
@@ -2532,16 +2541,16 @@
         </is>
       </c>
       <c r="K96" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L96" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M96" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P96" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="97" spans="2:16">
@@ -2551,16 +2560,16 @@
         </is>
       </c>
       <c r="K97" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L97" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M97" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P97" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="98" spans="2:16">
@@ -2570,16 +2579,16 @@
         </is>
       </c>
       <c r="K98" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L98" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M98" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P98" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="99" spans="2:16">
@@ -2589,16 +2598,16 @@
         </is>
       </c>
       <c r="K99" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L99" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M99" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P99" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="100" spans="2:16">
@@ -2618,7 +2627,7 @@
         </is>
       </c>
       <c r="M100" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P100" s="8" t="inlineStr">
         <is>
@@ -2633,16 +2642,16 @@
         </is>
       </c>
       <c r="K101" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L101" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M101" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P101" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="102" spans="2:16">
@@ -2652,16 +2661,16 @@
         </is>
       </c>
       <c r="K102" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L102" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M102" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P102" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="103" spans="2:16">
@@ -2671,16 +2680,16 @@
         </is>
       </c>
       <c r="K103" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L103" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M103" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P103" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="104" spans="2:16">
@@ -2690,16 +2699,16 @@
         </is>
       </c>
       <c r="K104" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L104" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M104" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P104" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="105" spans="2:16">
@@ -2709,16 +2718,16 @@
         </is>
       </c>
       <c r="K105" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L105" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M105" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P105" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="106" spans="2:16">
@@ -2728,16 +2737,16 @@
         </is>
       </c>
       <c r="K106" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L106" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M106" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P106" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="107" spans="2:16">
@@ -2747,16 +2756,16 @@
         </is>
       </c>
       <c r="K107" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L107" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M107" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P107" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="108" spans="2:16">
@@ -2766,16 +2775,16 @@
         </is>
       </c>
       <c r="K108" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L108" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M108" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P108" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="109" spans="2:16">
@@ -2785,16 +2794,16 @@
         </is>
       </c>
       <c r="K109" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L109" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M109" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P109" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="110" spans="2:16">
@@ -2804,16 +2813,16 @@
         </is>
       </c>
       <c r="K110" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L110" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M110" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P110" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="111" spans="2:16">
@@ -2823,16 +2832,16 @@
         </is>
       </c>
       <c r="K111" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L111" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M111" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P111" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="112" spans="2:16">
@@ -2842,16 +2851,16 @@
         </is>
       </c>
       <c r="K112" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L112" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M112" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P112" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="113" spans="2:16">
@@ -2861,16 +2870,16 @@
         </is>
       </c>
       <c r="K113" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L113" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M113" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P113" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="114" spans="2:16">
@@ -2880,16 +2889,16 @@
         </is>
       </c>
       <c r="K114" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L114" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M114" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P114" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="115" spans="2:16">
@@ -2899,16 +2908,16 @@
         </is>
       </c>
       <c r="K115" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L115" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M115" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P115" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="116" spans="2:16">
@@ -2918,16 +2927,16 @@
         </is>
       </c>
       <c r="K116" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L116" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M116" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P116" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="117" spans="2:16">
@@ -2942,10 +2951,10 @@
         </is>
       </c>
       <c r="L117" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M117" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P117" s="8" t="inlineStr">
         <is>
@@ -2965,10 +2974,10 @@
         </is>
       </c>
       <c r="L118" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M118" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P118" s="8" t="inlineStr">
         <is>
@@ -2988,10 +2997,10 @@
         </is>
       </c>
       <c r="L119" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M119" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P119" s="8" t="inlineStr">
         <is>
@@ -3011,10 +3020,10 @@
         </is>
       </c>
       <c r="L120" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M120" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P120" s="8" t="inlineStr">
         <is>
@@ -3034,7 +3043,7 @@
         </is>
       </c>
       <c r="L121" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M121" s="8" t="inlineStr">
         <is>
@@ -3059,7 +3068,7 @@
         </is>
       </c>
       <c r="L122" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M122" s="8" t="inlineStr">
         <is>
@@ -3079,16 +3088,16 @@
         </is>
       </c>
       <c r="K123" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L123" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M123" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P123" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="124" spans="2:16">
@@ -3098,16 +3107,16 @@
         </is>
       </c>
       <c r="K124" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L124" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M124" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P124" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="125" spans="2:16">
@@ -3117,16 +3126,16 @@
         </is>
       </c>
       <c r="K125" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L125" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M125" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P125" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126" spans="2:16">
@@ -3136,16 +3145,16 @@
         </is>
       </c>
       <c r="K126" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L126" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M126" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P126" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="127" spans="2:16">
@@ -3155,16 +3164,16 @@
         </is>
       </c>
       <c r="K127" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L127" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M127" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P127" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="128" spans="2:16">
@@ -3174,16 +3183,16 @@
         </is>
       </c>
       <c r="K128" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L128" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M128" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P128" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="129" spans="2:16">
@@ -3193,16 +3202,16 @@
         </is>
       </c>
       <c r="K129" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L129" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M129" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P129" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="130" spans="2:16">
@@ -3212,16 +3221,16 @@
         </is>
       </c>
       <c r="K130" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L130" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M130" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P130" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="131" spans="2:16">
@@ -3231,16 +3240,16 @@
         </is>
       </c>
       <c r="K131" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L131" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M131" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P131" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="132" spans="2:16">
@@ -3250,16 +3259,16 @@
         </is>
       </c>
       <c r="K132" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L132" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M132" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P132" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="133" spans="2:16">
@@ -3323,16 +3332,16 @@
         </is>
       </c>
       <c r="K135" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L135" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M135" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P135" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="136" spans="2:16">
@@ -3342,16 +3351,16 @@
         </is>
       </c>
       <c r="K136" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L136" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M136" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P136" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="137" spans="2:16">
@@ -3371,7 +3380,7 @@
         </is>
       </c>
       <c r="M137" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P137" s="8" t="inlineStr">
         <is>
@@ -3386,36 +3395,36 @@
         </is>
       </c>
       <c r="K138" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L138" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M138" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P138" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="139" spans="2:16">
       <c r="B139" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C139" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C139" s="9" t="s">
+      <c r="G139" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G139" s="6" t="s">
+      <c r="H139" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H139" s="9" t="s">
+      <c r="I139" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="I139" s="9" t="s">
+      <c r="N139" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="N139" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="P139" s="10" t="inlineStr">
         <is>
@@ -3425,7 +3434,7 @@
     </row>
     <row r="142" spans="2:16" ht="18.75">
       <c r="H142" s="2" t="s">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="143" spans="2:16">
@@ -3433,13 +3442,13 @@
         <v>1</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="L143" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M143" s="4" t="s">
-        <v>4</v>
+        <v>112</v>
       </c>
     </row>
     <row r="145" spans="2:16">
@@ -3447,43 +3456,43 @@
         <v>5</v>
       </c>
       <c r="D145" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L145" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="L145" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="146" spans="2:16" ht="20.75">
       <c r="H146" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N146" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="N146" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="149" spans="2:16">
       <c r="B149" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="150" spans="2:16">
       <c r="B150" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I150" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I150" s="6" t="s">
+      <c r="L150" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L150" s="6" t="s">
+      <c r="M150" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M150" s="6" t="s">
+      <c r="N150" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="N150" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="151" spans="2:16">
@@ -3493,16 +3502,16 @@
         </is>
       </c>
       <c r="K151" s="8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L151" s="8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M151" s="8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P151" s="8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="152" spans="2:16">
@@ -3527,7 +3536,7 @@
         </is>
       </c>
       <c r="P152" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="153" spans="2:16">
@@ -3537,16 +3546,16 @@
         </is>
       </c>
       <c r="K153" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L153" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M153" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P153" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="154" spans="2:16">
@@ -3556,16 +3565,16 @@
         </is>
       </c>
       <c r="K154" s="8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L154" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M154" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P154" s="8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="155" spans="2:16">
@@ -3575,16 +3584,16 @@
         </is>
       </c>
       <c r="K155" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L155" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M155" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P155" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="156" spans="2:16">
@@ -3599,7 +3608,7 @@
         </is>
       </c>
       <c r="L156" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M156" s="8" t="inlineStr">
         <is>
@@ -3619,16 +3628,16 @@
         </is>
       </c>
       <c r="K157" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L157" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M157" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P157" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="158" spans="2:16">
@@ -3638,16 +3647,16 @@
         </is>
       </c>
       <c r="K158" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L158" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M158" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P158" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="159" spans="2:16">
@@ -3689,7 +3698,7 @@
         </is>
       </c>
       <c r="L160" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M160" s="8" t="inlineStr">
         <is>
@@ -3709,16 +3718,16 @@
         </is>
       </c>
       <c r="K161" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L161" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M161" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P161" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="162" spans="2:16">
@@ -3728,16 +3737,16 @@
         </is>
       </c>
       <c r="K162" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L162" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M162" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P162" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="163" spans="2:16">
@@ -3747,16 +3756,16 @@
         </is>
       </c>
       <c r="K163" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L163" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M163" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P163" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="164" spans="2:16">
@@ -3766,16 +3775,16 @@
         </is>
       </c>
       <c r="K164" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L164" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M164" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P164" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="165" spans="2:16">
@@ -3785,16 +3794,16 @@
         </is>
       </c>
       <c r="K165" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L165" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M165" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P165" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="166" spans="2:16">
@@ -3814,7 +3823,7 @@
         </is>
       </c>
       <c r="M166" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P166" s="8" t="inlineStr">
         <is>
@@ -3829,16 +3838,16 @@
         </is>
       </c>
       <c r="K167" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L167" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M167" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P167" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="168" spans="2:16">
@@ -3848,16 +3857,16 @@
         </is>
       </c>
       <c r="K168" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L168" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M168" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P168" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="169" spans="2:16">
@@ -3867,16 +3876,16 @@
         </is>
       </c>
       <c r="K169" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L169" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M169" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P169" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="170" spans="2:16">
@@ -3886,16 +3895,16 @@
         </is>
       </c>
       <c r="K170" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L170" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M170" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P170" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="171" spans="2:16">
@@ -3905,16 +3914,16 @@
         </is>
       </c>
       <c r="K171" s="8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L171" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M171" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P171" s="8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="172" spans="2:16">
@@ -3924,16 +3933,16 @@
         </is>
       </c>
       <c r="K172" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L172" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M172" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P172" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="173" spans="2:16">
@@ -3943,16 +3952,16 @@
         </is>
       </c>
       <c r="K173" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L173" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M173" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P173" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="174" spans="2:16">
@@ -3962,16 +3971,16 @@
         </is>
       </c>
       <c r="K174" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L174" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M174" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P174" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="175" spans="2:16">
@@ -3981,16 +3990,16 @@
         </is>
       </c>
       <c r="K175" s="8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L175" s="8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M175" s="8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P175" s="8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="176" spans="2:16">
@@ -4000,16 +4009,16 @@
         </is>
       </c>
       <c r="K176" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L176" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M176" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P176" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="177" spans="2:16">
@@ -4019,16 +4028,16 @@
         </is>
       </c>
       <c r="K177" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L177" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M177" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P177" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="178" spans="2:16">
@@ -4119,16 +4128,16 @@
         </is>
       </c>
       <c r="K181" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L181" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M181" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P181" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="182" spans="2:16">
@@ -4170,7 +4179,7 @@
         </is>
       </c>
       <c r="L183" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M183" s="8" t="inlineStr">
         <is>
@@ -4195,7 +4204,7 @@
         </is>
       </c>
       <c r="L184" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M184" s="8" t="inlineStr">
         <is>
@@ -4242,16 +4251,16 @@
         </is>
       </c>
       <c r="K186" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L186" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M186" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P186" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="187" spans="2:16">
@@ -4261,16 +4270,16 @@
         </is>
       </c>
       <c r="K187" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L187" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M187" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P187" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="188" spans="2:16">
@@ -4285,7 +4294,7 @@
         </is>
       </c>
       <c r="L188" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M188" s="8" t="inlineStr">
         <is>
@@ -4310,7 +4319,7 @@
         </is>
       </c>
       <c r="L189" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M189" s="8" t="inlineStr">
         <is>
@@ -4335,7 +4344,7 @@
         </is>
       </c>
       <c r="L190" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M190" s="8" t="inlineStr">
         <is>
@@ -4360,7 +4369,7 @@
         </is>
       </c>
       <c r="L191" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M191" s="8" t="inlineStr">
         <is>
@@ -4380,16 +4389,16 @@
         </is>
       </c>
       <c r="K192" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L192" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M192" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P192" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="193" spans="2:16">
@@ -4404,7 +4413,7 @@
         </is>
       </c>
       <c r="L193" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M193" s="8" t="inlineStr">
         <is>
@@ -4429,7 +4438,7 @@
         </is>
       </c>
       <c r="L194" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M194" s="8" t="inlineStr">
         <is>
@@ -4449,16 +4458,16 @@
         </is>
       </c>
       <c r="K195" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L195" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M195" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P195" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="196" spans="2:16">
@@ -4468,16 +4477,16 @@
         </is>
       </c>
       <c r="K196" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L196" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M196" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P196" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="197" spans="2:16">
@@ -4487,16 +4496,16 @@
         </is>
       </c>
       <c r="K197" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L197" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M197" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P197" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="198" spans="2:16">
@@ -4506,13 +4515,13 @@
         </is>
       </c>
       <c r="K198" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L198" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M198" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P198" s="8" t="inlineStr">
         <is>
@@ -4527,16 +4536,16 @@
         </is>
       </c>
       <c r="K199" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L199" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M199" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P199" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="200" spans="2:16">
@@ -4546,16 +4555,16 @@
         </is>
       </c>
       <c r="K200" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L200" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M200" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P200" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="201" spans="2:16">
@@ -4565,16 +4574,16 @@
         </is>
       </c>
       <c r="K201" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L201" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M201" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P201" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="202" spans="2:16">
@@ -4584,16 +4593,16 @@
         </is>
       </c>
       <c r="K202" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L202" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M202" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P202" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="203" spans="2:16">
@@ -4603,16 +4612,16 @@
         </is>
       </c>
       <c r="K203" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L203" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M203" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P203" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="204" spans="2:16">
@@ -4622,16 +4631,16 @@
         </is>
       </c>
       <c r="K204" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L204" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M204" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P204" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="205" spans="2:16">
@@ -4641,16 +4650,16 @@
         </is>
       </c>
       <c r="K205" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L205" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M205" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P205" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="206" spans="2:16">
@@ -4665,10 +4674,10 @@
         </is>
       </c>
       <c r="L206" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M206" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P206" s="8" t="inlineStr">
         <is>
@@ -4683,16 +4692,16 @@
         </is>
       </c>
       <c r="K207" s="8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L207" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M207" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P207" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="208" spans="2:16">
@@ -4702,16 +4711,16 @@
         </is>
       </c>
       <c r="K208" s="8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L208" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M208" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P208" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="209" spans="2:16">
@@ -4721,16 +4730,16 @@
         </is>
       </c>
       <c r="K209" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L209" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M209" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P209" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="210" spans="2:16">
@@ -4740,16 +4749,16 @@
         </is>
       </c>
       <c r="K210" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L210" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M210" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P210" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="211" spans="2:16">
@@ -4759,16 +4768,16 @@
         </is>
       </c>
       <c r="K211" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L211" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M211" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P211" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="212" spans="2:16">
@@ -4778,16 +4787,16 @@
         </is>
       </c>
       <c r="K212" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L212" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M212" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P212" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="213" spans="2:16">
@@ -4797,36 +4806,36 @@
         </is>
       </c>
       <c r="K213" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L213" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M213" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P213" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="214" spans="2:16">
       <c r="B214" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C214" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C214" s="9" t="s">
+      <c r="G214" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G214" s="6" t="s">
+      <c r="H214" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H214" s="9" t="s">
+      <c r="I214" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="I214" s="9" t="s">
+      <c r="N214" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="N214" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="P214" s="10" t="inlineStr">
         <is>
@@ -4836,21 +4845,30 @@
     </row>
     <row r="217" spans="2:16" ht="18.75">
       <c r="H217" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="218" spans="2:16">
       <c r="B218" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D218" s="4" t="s">
-        <v>2</v>
+      <c r="D218" s="4" t="inlineStr">
+        <is>
+          <t>xxxxxxx</t>
+        </is>
       </c>
       <c r="L218" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M218" s="4" t="s">
-        <v>4</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="219" spans="2:16">
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
     </row>
     <row r="220" spans="2:16">
@@ -4858,43 +4876,43 @@
         <v>5</v>
       </c>
       <c r="D220" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L220" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="L220" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="221" spans="2:16" ht="20.75">
       <c r="H221" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M221" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="M221" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="224" spans="2:16">
       <c r="B224" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D224" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="D224" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="225" spans="2:16">
       <c r="B225" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I225" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I225" s="6" t="s">
+      <c r="L225" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L225" s="6" t="s">
+      <c r="M225" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M225" s="6" t="s">
+      <c r="N225" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="N225" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="226" spans="2:16">
@@ -4904,16 +4922,16 @@
         </is>
       </c>
       <c r="K226" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L226" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M226" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P226" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="228" spans="2:16">
@@ -4923,16 +4941,16 @@
         </is>
       </c>
       <c r="K228" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L228" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M228" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P228" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="229" spans="2:16">
@@ -4942,16 +4960,16 @@
         </is>
       </c>
       <c r="K229" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L229" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M229" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P229" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="230" spans="2:16">
@@ -4961,16 +4979,16 @@
         </is>
       </c>
       <c r="K230" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L230" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M230" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P230" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="231" spans="2:16">
@@ -4980,16 +4998,16 @@
         </is>
       </c>
       <c r="K231" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L231" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M231" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P231" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="232" spans="2:16">
@@ -5009,7 +5027,7 @@
         </is>
       </c>
       <c r="M232" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P232" s="8" t="inlineStr">
         <is>
@@ -5024,16 +5042,16 @@
         </is>
       </c>
       <c r="K233" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L233" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M233" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P233" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="234" spans="2:16">
@@ -5043,16 +5061,16 @@
         </is>
       </c>
       <c r="K234" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L234" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M234" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P234" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="235" spans="2:16">
@@ -5062,16 +5080,16 @@
         </is>
       </c>
       <c r="K235" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L235" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M235" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P235" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="236" spans="2:16">
@@ -5081,16 +5099,16 @@
         </is>
       </c>
       <c r="K236" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L236" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M236" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P236" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="237" spans="2:16">
@@ -5100,16 +5118,16 @@
         </is>
       </c>
       <c r="K237" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L237" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M237" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P237" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="238" spans="2:16">
@@ -5119,16 +5137,16 @@
         </is>
       </c>
       <c r="K238" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L238" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M238" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P238" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="239" spans="2:16">
@@ -5138,16 +5156,16 @@
         </is>
       </c>
       <c r="K239" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L239" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M239" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P239" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="240" spans="2:16">
@@ -5157,16 +5175,16 @@
         </is>
       </c>
       <c r="K240" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L240" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M240" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P240" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="241" spans="2:16">
@@ -5176,16 +5194,16 @@
         </is>
       </c>
       <c r="K241" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L241" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M241" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P241" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="242" spans="2:16">
@@ -5195,16 +5213,16 @@
         </is>
       </c>
       <c r="K242" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L242" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M242" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P242" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="243" spans="2:16">
@@ -5214,16 +5232,16 @@
         </is>
       </c>
       <c r="K243" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L243" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M243" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P243" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="244" spans="2:16">
@@ -5233,16 +5251,16 @@
         </is>
       </c>
       <c r="K244" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L244" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M244" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P244" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="245" spans="2:16">
@@ -5252,16 +5270,16 @@
         </is>
       </c>
       <c r="K245" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L245" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M245" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P245" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="246" spans="2:16">
@@ -5271,16 +5289,16 @@
         </is>
       </c>
       <c r="K246" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L246" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M246" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P246" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="247" spans="2:16">
@@ -5290,16 +5308,16 @@
         </is>
       </c>
       <c r="K247" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L247" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M247" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P247" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="248" spans="2:16">
@@ -5341,10 +5359,10 @@
         </is>
       </c>
       <c r="L249" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M249" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P249" s="8" t="inlineStr">
         <is>
@@ -5364,7 +5382,7 @@
         </is>
       </c>
       <c r="L250" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M250" s="8" t="inlineStr">
         <is>
@@ -5384,16 +5402,16 @@
         </is>
       </c>
       <c r="K251" s="8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L251" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M251" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P251" s="8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="252" spans="2:16">
@@ -5403,16 +5421,16 @@
         </is>
       </c>
       <c r="K252" s="8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L252" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M252" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P252" s="8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="253" spans="2:16">
@@ -5422,16 +5440,16 @@
         </is>
       </c>
       <c r="K253" s="8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L253" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M253" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P253" s="8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="254" spans="2:16">
@@ -5446,7 +5464,7 @@
         </is>
       </c>
       <c r="L254" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M254" s="8" t="inlineStr">
         <is>
@@ -5471,7 +5489,7 @@
         </is>
       </c>
       <c r="L255" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M255" s="8" t="inlineStr">
         <is>
@@ -5496,7 +5514,7 @@
         </is>
       </c>
       <c r="L256" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M256" s="8" t="inlineStr">
         <is>
@@ -5521,7 +5539,7 @@
         </is>
       </c>
       <c r="L257" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M257" s="8" t="inlineStr">
         <is>
@@ -5546,7 +5564,7 @@
         </is>
       </c>
       <c r="L258" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M258" s="8" t="inlineStr">
         <is>
@@ -5571,7 +5589,7 @@
         </is>
       </c>
       <c r="L259" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M259" s="8" t="inlineStr">
         <is>
@@ -5596,7 +5614,7 @@
         </is>
       </c>
       <c r="L260" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M260" s="8" t="inlineStr">
         <is>
@@ -5616,16 +5634,16 @@
         </is>
       </c>
       <c r="K261" s="8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L261" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M261" s="8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P261" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="262" spans="2:16">
@@ -5635,16 +5653,16 @@
         </is>
       </c>
       <c r="K262" s="8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L262" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M262" s="8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P262" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="263" spans="2:16">
@@ -5654,16 +5672,16 @@
         </is>
       </c>
       <c r="K263" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L263" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M263" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P263" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="264" spans="2:16">
@@ -5673,16 +5691,16 @@
         </is>
       </c>
       <c r="K264" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L264" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M264" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P264" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="265" spans="2:16">
@@ -5692,16 +5710,16 @@
         </is>
       </c>
       <c r="K265" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L265" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M265" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P265" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="266" spans="2:16">
@@ -5711,16 +5729,16 @@
         </is>
       </c>
       <c r="K266" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L266" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M266" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P266" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="267" spans="2:16">
@@ -5730,16 +5748,16 @@
         </is>
       </c>
       <c r="K267" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L267" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M267" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P267" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="268" spans="2:16">
@@ -5749,16 +5767,16 @@
         </is>
       </c>
       <c r="K268" s="8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L268" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M268" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P268" s="8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="269" spans="2:16">
@@ -5768,16 +5786,16 @@
         </is>
       </c>
       <c r="K269" s="8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L269" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M269" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P269" s="8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="270" spans="2:16">
@@ -5787,16 +5805,16 @@
         </is>
       </c>
       <c r="K270" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L270" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M270" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P270" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="271" spans="2:16">
@@ -5806,16 +5824,16 @@
         </is>
       </c>
       <c r="K271" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L271" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M271" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P271" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="272" spans="2:16">
@@ -5825,16 +5843,16 @@
         </is>
       </c>
       <c r="K272" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L272" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M272" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P272" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="273" spans="2:16">
@@ -5844,16 +5862,16 @@
         </is>
       </c>
       <c r="K273" s="8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L273" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M273" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P273" s="8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="274" spans="2:16">
@@ -5863,16 +5881,16 @@
         </is>
       </c>
       <c r="K274" s="8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L274" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M274" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P274" s="8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="275" spans="2:16">
@@ -5882,16 +5900,16 @@
         </is>
       </c>
       <c r="K275" s="8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L275" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M275" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P275" s="8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="276" spans="2:16">
@@ -5901,16 +5919,16 @@
         </is>
       </c>
       <c r="K276" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L276" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M276" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P276" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="277" spans="2:16">
@@ -5920,16 +5938,16 @@
         </is>
       </c>
       <c r="K277" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L277" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M277" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P277" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="278" spans="2:16">
@@ -5939,16 +5957,16 @@
         </is>
       </c>
       <c r="K278" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L278" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M278" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P278" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="279" spans="2:16">
@@ -5958,16 +5976,16 @@
         </is>
       </c>
       <c r="K279" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L279" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M279" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P279" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="280" spans="2:16">
@@ -5977,16 +5995,16 @@
         </is>
       </c>
       <c r="K280" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L280" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M280" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P280" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="281" spans="2:16">
@@ -5996,36 +6014,36 @@
         </is>
       </c>
       <c r="K281" s="8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L281" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M281" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P281" s="8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="282" spans="2:16">
       <c r="B282" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C282" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C282" s="9" t="s">
+      <c r="G282" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G282" s="6" t="s">
+      <c r="H282" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H282" s="9" t="s">
+      <c r="I282" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="I282" s="9" t="s">
+      <c r="M282" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="M282" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="P282" s="10" t="inlineStr">
         <is>
@@ -6035,7 +6053,7 @@
     </row>
     <row r="285" spans="2:16" ht="18.75">
       <c r="H285" s="2" t="s">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="286" spans="2:16">
@@ -6043,13 +6061,15 @@
         <v>1</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="L286" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M286" s="4" t="s">
-        <v>4</v>
+      <c r="M286" s="4" t="inlineStr">
+        <is>
+          <t>xxxxxxxxxx</t>
+        </is>
       </c>
     </row>
     <row r="288" spans="2:16">
@@ -6057,43 +6077,43 @@
         <v>5</v>
       </c>
       <c r="D288" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L288" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="L288" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="289" spans="2:16" ht="20.75">
       <c r="H289" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M289" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="M289" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="292" spans="2:16">
       <c r="B292" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D292" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="D292" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="293" spans="2:16">
       <c r="B293" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I293" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I293" s="6" t="s">
+      <c r="L293" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L293" s="6" t="s">
+      <c r="M293" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M293" s="6" t="s">
+      <c r="N293" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="N293" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="294" spans="2:16">
@@ -6103,16 +6123,16 @@
         </is>
       </c>
       <c r="K294" s="8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L294" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M294" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P294" s="8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="296" spans="2:16">
@@ -6127,10 +6147,10 @@
         </is>
       </c>
       <c r="L296" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M296" s="8" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P296" s="8" t="inlineStr">
         <is>
@@ -6150,10 +6170,10 @@
         </is>
       </c>
       <c r="L297" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M297" s="8" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P297" s="8" t="inlineStr">
         <is>
@@ -6173,7 +6193,7 @@
         </is>
       </c>
       <c r="L298" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M298" s="8" t="inlineStr">
         <is>
@@ -6198,7 +6218,7 @@
         </is>
       </c>
       <c r="L299" s="8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M299" s="8" t="inlineStr">
         <is>
@@ -6223,7 +6243,7 @@
         </is>
       </c>
       <c r="L300" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M300" s="8" t="inlineStr">
         <is>
@@ -6248,10 +6268,10 @@
         </is>
       </c>
       <c r="L301" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M301" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P301" s="8" t="inlineStr">
         <is>
@@ -6271,10 +6291,10 @@
         </is>
       </c>
       <c r="L302" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M302" s="8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P302" s="8" t="inlineStr">
         <is>
@@ -6294,10 +6314,10 @@
         </is>
       </c>
       <c r="L303" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M303" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P303" s="8" t="inlineStr">
         <is>
@@ -6312,16 +6332,16 @@
         </is>
       </c>
       <c r="K304" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L304" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M304" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P304" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="305" spans="2:16">
@@ -6331,16 +6351,16 @@
         </is>
       </c>
       <c r="K305" s="8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L305" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M305" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P305" s="8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="306" spans="2:16">
@@ -6360,7 +6380,7 @@
         </is>
       </c>
       <c r="M306" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P306" s="8" t="inlineStr">
         <is>
@@ -6385,7 +6405,7 @@
         </is>
       </c>
       <c r="M307" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P307" s="8" t="inlineStr">
         <is>
@@ -6400,16 +6420,16 @@
         </is>
       </c>
       <c r="K308" s="8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L308" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M308" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P308" s="8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="309" spans="2:16">
@@ -6419,16 +6439,16 @@
         </is>
       </c>
       <c r="K309" s="8" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L309" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M309" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P309" s="8" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="310" spans="2:16">
@@ -6438,16 +6458,16 @@
         </is>
       </c>
       <c r="K310" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L310" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M310" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P310" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="311" spans="2:16">
@@ -6457,16 +6477,16 @@
         </is>
       </c>
       <c r="K311" s="8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L311" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M311" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P311" s="8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="312" spans="2:16">
@@ -6476,16 +6496,16 @@
         </is>
       </c>
       <c r="K312" s="8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L312" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M312" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P312" s="8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="313" spans="2:16">
@@ -6495,16 +6515,16 @@
         </is>
       </c>
       <c r="K313" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L313" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M313" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P313" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="314" spans="2:16">
@@ -6514,16 +6534,16 @@
         </is>
       </c>
       <c r="K314" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L314" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M314" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P314" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="315" spans="2:16">
@@ -6533,16 +6553,16 @@
         </is>
       </c>
       <c r="K315" s="8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L315" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M315" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P315" s="8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="316" spans="2:16">
@@ -6552,16 +6572,16 @@
         </is>
       </c>
       <c r="K316" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L316" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M316" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P316" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="317" spans="2:16">
@@ -6571,16 +6591,16 @@
         </is>
       </c>
       <c r="K317" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L317" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M317" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P317" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="318" spans="2:16">
@@ -6590,16 +6610,16 @@
         </is>
       </c>
       <c r="K318" s="8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L318" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M318" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P318" s="8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="319" spans="2:16">
@@ -6609,16 +6629,16 @@
         </is>
       </c>
       <c r="K319" s="8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L319" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M319" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P319" s="8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="320" spans="2:16">
@@ -6628,16 +6648,16 @@
         </is>
       </c>
       <c r="K320" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L320" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M320" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P320" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="321" spans="2:16">
@@ -6647,16 +6667,16 @@
         </is>
       </c>
       <c r="K321" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L321" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M321" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P321" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="322" spans="2:16">
@@ -6666,16 +6686,16 @@
         </is>
       </c>
       <c r="K322" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L322" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M322" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P322" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="323" spans="2:16">
@@ -6685,16 +6705,16 @@
         </is>
       </c>
       <c r="K323" s="8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L323" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M323" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P323" s="8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="324" spans="2:16">
@@ -6714,7 +6734,7 @@
         </is>
       </c>
       <c r="M324" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P324" s="8" t="inlineStr">
         <is>
@@ -6729,16 +6749,16 @@
         </is>
       </c>
       <c r="K325" s="8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L325" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M325" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P325" s="8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="326" spans="2:16">
@@ -6748,16 +6768,16 @@
         </is>
       </c>
       <c r="K326" s="8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L326" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M326" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P326" s="8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="327" spans="2:16">
@@ -6767,16 +6787,16 @@
         </is>
       </c>
       <c r="K327" s="8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L327" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M327" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P327" s="8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="328" spans="2:16">
@@ -6786,16 +6806,16 @@
         </is>
       </c>
       <c r="K328" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L328" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M328" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P328" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="329" spans="2:16">
@@ -6805,16 +6825,16 @@
         </is>
       </c>
       <c r="K329" s="8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L329" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M329" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P329" s="8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="330" spans="2:16">
@@ -6824,16 +6844,16 @@
         </is>
       </c>
       <c r="K330" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L330" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M330" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P330" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="331" spans="2:16">
@@ -6843,16 +6863,16 @@
         </is>
       </c>
       <c r="K331" s="8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L331" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M331" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P331" s="8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="332" spans="2:16">
@@ -6862,16 +6882,16 @@
         </is>
       </c>
       <c r="K332" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L332" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M332" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P332" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="333" spans="2:16">
@@ -6881,16 +6901,16 @@
         </is>
       </c>
       <c r="K333" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L333" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M333" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P333" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="334" spans="2:16">
@@ -6905,10 +6925,10 @@
         </is>
       </c>
       <c r="L334" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M334" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P334" s="8" t="inlineStr">
         <is>
@@ -6933,7 +6953,7 @@
         </is>
       </c>
       <c r="M335" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P335" s="8" t="inlineStr">
         <is>
@@ -6948,16 +6968,16 @@
         </is>
       </c>
       <c r="K336" s="8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L336" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M336" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P336" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="337" spans="2:16">
@@ -6967,16 +6987,16 @@
         </is>
       </c>
       <c r="K337" s="8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L337" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M337" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P337" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="338" spans="2:16">
@@ -6996,7 +7016,7 @@
         </is>
       </c>
       <c r="M338" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P338" s="8" t="inlineStr">
         <is>
@@ -7011,16 +7031,16 @@
         </is>
       </c>
       <c r="K339" s="8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L339" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M339" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P339" s="8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="340" spans="2:16">
@@ -7030,16 +7050,16 @@
         </is>
       </c>
       <c r="K340" s="8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L340" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M340" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P340" s="8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="341" spans="2:16">
@@ -7049,16 +7069,16 @@
         </is>
       </c>
       <c r="K341" s="8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L341" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M341" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P341" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="342" spans="2:16">
@@ -7068,16 +7088,16 @@
         </is>
       </c>
       <c r="K342" s="8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L342" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M342" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P342" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="343" spans="2:16">
@@ -7087,16 +7107,16 @@
         </is>
       </c>
       <c r="K343" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L343" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M343" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P343" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="344" spans="2:16">
@@ -7106,16 +7126,16 @@
         </is>
       </c>
       <c r="K344" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L344" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M344" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P344" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="345" spans="2:16">
@@ -7125,16 +7145,16 @@
         </is>
       </c>
       <c r="K345" s="8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L345" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M345" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P345" s="8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="346" spans="2:16">
@@ -7144,16 +7164,16 @@
         </is>
       </c>
       <c r="K346" s="8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L346" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M346" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P346" s="8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="347" spans="2:16">
@@ -7163,16 +7183,16 @@
         </is>
       </c>
       <c r="K347" s="8" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L347" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M347" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P347" s="8" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="348" spans="2:16">
@@ -7182,16 +7202,16 @@
         </is>
       </c>
       <c r="K348" s="8" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L348" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M348" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P348" s="8" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="349" spans="2:16">
@@ -7201,16 +7221,16 @@
         </is>
       </c>
       <c r="K349" s="8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L349" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M349" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P349" s="8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="350" spans="2:16">
@@ -7220,16 +7240,16 @@
         </is>
       </c>
       <c r="K350" s="8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L350" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M350" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P350" s="8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="351" spans="2:16">
@@ -7239,16 +7259,16 @@
         </is>
       </c>
       <c r="K351" s="8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L351" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M351" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P351" s="8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="352" spans="2:16">
@@ -7258,16 +7278,16 @@
         </is>
       </c>
       <c r="K352" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L352" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M352" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P352" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="353" spans="2:16">
@@ -7277,16 +7297,16 @@
         </is>
       </c>
       <c r="K353" s="8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L353" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M353" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P353" s="8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="354" spans="2:16">
@@ -7296,16 +7316,16 @@
         </is>
       </c>
       <c r="K354" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L354" s="8" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M354" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P354" s="8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="355" spans="2:16">
@@ -7315,16 +7335,16 @@
         </is>
       </c>
       <c r="K355" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L355" s="8" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M355" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P355" s="8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="356" spans="2:16">
@@ -7344,7 +7364,7 @@
         </is>
       </c>
       <c r="M356" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P356" s="8" t="inlineStr">
         <is>
@@ -7364,10 +7384,10 @@
         </is>
       </c>
       <c r="L357" s="8" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M357" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P357" s="8" t="inlineStr">
         <is>
@@ -7382,36 +7402,36 @@
         </is>
       </c>
       <c r="K358" s="8" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L358" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M358" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P358" s="8" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="359" spans="2:16">
       <c r="B359" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C359" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C359" s="9" t="s">
+      <c r="G359" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G359" s="6" t="s">
+      <c r="H359" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H359" s="9" t="s">
+      <c r="I359" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="I359" s="9" t="s">
+      <c r="M359" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="M359" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="P359" s="10" t="inlineStr">
         <is>
@@ -7429,57 +7449,59 @@
         <v>1</v>
       </c>
       <c r="D363" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L363" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M363" s="4" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
     </row>
     <row r="365" spans="2:16">
       <c r="B365" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D365" s="4" t="s">
+      <c r="D365" s="4" t="inlineStr">
+        <is>
+          <t>xxxxxxxxxxxxxxxx</t>
+        </is>
+      </c>
+      <c r="L365" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="L365" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="366" spans="2:16" ht="20.75">
       <c r="H366" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N366" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="N366" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="369" spans="2:16">
       <c r="B369" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D369" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="D369" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="370" spans="2:16">
       <c r="B370" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I370" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I370" s="6" t="s">
+      <c r="L370" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L370" s="6" t="s">
+      <c r="M370" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M370" s="6" t="s">
+      <c r="N370" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="N370" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="371" spans="2:16">
@@ -7494,10 +7516,10 @@
         </is>
       </c>
       <c r="L371" s="8" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M371" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P371" s="8" t="inlineStr">
         <is>
@@ -7512,16 +7534,16 @@
         </is>
       </c>
       <c r="K372" s="8" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L372" s="8" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M372" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P372" s="8" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="373" spans="2:16">
@@ -7531,16 +7553,16 @@
         </is>
       </c>
       <c r="K373" s="8" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L373" s="8" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M373" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P373" s="8" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="374" spans="2:16">
@@ -7560,7 +7582,7 @@
         </is>
       </c>
       <c r="M374" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P374" s="8" t="inlineStr">
         <is>
@@ -7585,7 +7607,7 @@
         </is>
       </c>
       <c r="M375" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P375" s="8" t="inlineStr">
         <is>
@@ -7600,16 +7622,16 @@
         </is>
       </c>
       <c r="K376" s="8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L376" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M376" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P376" s="8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="377" spans="2:16">
@@ -7619,16 +7641,16 @@
         </is>
       </c>
       <c r="K377" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L377" s="8" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M377" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P377" s="8" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="378" spans="2:16">
@@ -7643,10 +7665,10 @@
         </is>
       </c>
       <c r="L378" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M378" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P378" s="8" t="inlineStr">
         <is>
@@ -7661,16 +7683,16 @@
         </is>
       </c>
       <c r="K379" s="8" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L379" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M379" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P379" s="8" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="380" spans="2:16">
@@ -7685,10 +7707,10 @@
         </is>
       </c>
       <c r="L380" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M380" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P380" s="8" t="inlineStr">
         <is>
@@ -7703,16 +7725,16 @@
         </is>
       </c>
       <c r="K381" s="8" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L381" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M381" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P381" s="8" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="382" spans="2:16">
@@ -7722,16 +7744,16 @@
         </is>
       </c>
       <c r="K382" s="8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L382" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M382" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P382" s="8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="383" spans="2:16">
@@ -7741,16 +7763,16 @@
         </is>
       </c>
       <c r="K383" s="8" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L383" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M383" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P383" s="8" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="384" spans="2:16">
@@ -7760,16 +7782,16 @@
         </is>
       </c>
       <c r="K384" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L384" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M384" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P384" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="385" spans="2:16">
@@ -7779,16 +7801,16 @@
         </is>
       </c>
       <c r="K385" s="8" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L385" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M385" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P385" s="8" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="386" spans="2:16">
@@ -7798,16 +7820,16 @@
         </is>
       </c>
       <c r="K386" s="8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L386" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M386" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P386" s="8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="387" spans="2:16">
@@ -7817,16 +7839,16 @@
         </is>
       </c>
       <c r="K387" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L387" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M387" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P387" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="388" spans="2:16">
@@ -7836,16 +7858,16 @@
         </is>
       </c>
       <c r="K388" s="8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L388" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M388" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P388" s="8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="389" spans="2:16">
@@ -7855,16 +7877,16 @@
         </is>
       </c>
       <c r="K389" s="8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L389" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M389" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P389" s="8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="390" spans="2:16">
@@ -7874,16 +7896,16 @@
         </is>
       </c>
       <c r="K390" s="8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L390" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M390" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P390" s="8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="391" spans="2:16">
@@ -7898,10 +7920,10 @@
         </is>
       </c>
       <c r="L391" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M391" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P391" s="8" t="inlineStr">
         <is>
@@ -7921,10 +7943,10 @@
         </is>
       </c>
       <c r="L392" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M392" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P392" s="8" t="inlineStr">
         <is>
@@ -7944,10 +7966,10 @@
         </is>
       </c>
       <c r="L393" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M393" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P393" s="8" t="inlineStr">
         <is>
@@ -7967,10 +7989,10 @@
         </is>
       </c>
       <c r="L394" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M394" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P394" s="8" t="inlineStr">
         <is>
@@ -7990,7 +8012,7 @@
         </is>
       </c>
       <c r="L395" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M395" s="8" t="inlineStr">
         <is>
@@ -8015,7 +8037,7 @@
         </is>
       </c>
       <c r="L396" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M396" s="8" t="inlineStr">
         <is>
@@ -8040,7 +8062,7 @@
         </is>
       </c>
       <c r="L397" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M397" s="8" t="inlineStr">
         <is>
@@ -8065,10 +8087,10 @@
         </is>
       </c>
       <c r="L398" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M398" s="8" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P398" s="8" t="inlineStr">
         <is>
@@ -8083,16 +8105,16 @@
         </is>
       </c>
       <c r="K399" s="8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L399" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M399" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P399" s="8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="400" spans="2:16">
@@ -8102,16 +8124,16 @@
         </is>
       </c>
       <c r="K400" s="8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L400" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M400" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P400" s="8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="401" spans="2:16">
@@ -8121,16 +8143,16 @@
         </is>
       </c>
       <c r="K401" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L401" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M401" s="8" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P401" s="8" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="402" spans="2:16">
@@ -8150,7 +8172,7 @@
         </is>
       </c>
       <c r="M402" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P402" s="8" t="inlineStr">
         <is>
@@ -8175,7 +8197,7 @@
         </is>
       </c>
       <c r="M403" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P403" s="8" t="inlineStr">
         <is>
@@ -8200,7 +8222,7 @@
         </is>
       </c>
       <c r="M404" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P404" s="8" t="inlineStr">
         <is>
@@ -8215,16 +8237,16 @@
         </is>
       </c>
       <c r="K405" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L405" s="8" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M405" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P405" s="8" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="406" spans="2:16">
@@ -8234,16 +8256,16 @@
         </is>
       </c>
       <c r="K406" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L406" s="8" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M406" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P406" s="8" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="407" spans="2:16">
@@ -8263,7 +8285,7 @@
         </is>
       </c>
       <c r="M407" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P407" s="8" t="inlineStr">
         <is>
@@ -8288,7 +8310,7 @@
         </is>
       </c>
       <c r="M408" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P408" s="8" t="inlineStr">
         <is>
@@ -8303,16 +8325,16 @@
         </is>
       </c>
       <c r="K409" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L409" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M409" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P409" s="8" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="410" spans="2:16">
@@ -8322,16 +8344,16 @@
         </is>
       </c>
       <c r="K410" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L410" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M410" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P410" s="8" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="411" spans="2:16">
@@ -8346,10 +8368,10 @@
         </is>
       </c>
       <c r="L411" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M411" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P411" s="8" t="inlineStr">
         <is>
@@ -8369,10 +8391,10 @@
         </is>
       </c>
       <c r="L412" s="8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M412" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P412" s="8" t="inlineStr">
         <is>
@@ -8387,16 +8409,16 @@
         </is>
       </c>
       <c r="K413" s="8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L413" s="8" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M413" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P413" s="8" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="414" spans="2:16">
@@ -8406,16 +8428,16 @@
         </is>
       </c>
       <c r="K414" s="8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L414" s="8" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M414" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P414" s="8" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="415" spans="2:16">
@@ -8435,36 +8457,36 @@
         </is>
       </c>
       <c r="K415" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L415" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M415" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P415" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="422" spans="2:16">
       <c r="B422" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C422" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C422" s="9" t="s">
+      <c r="G422" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G422" s="6" t="s">
+      <c r="H422" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H422" s="9" t="s">
+      <c r="I422" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="I422" s="9" t="s">
+      <c r="N422" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="N422" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="P422" s="10" t="inlineStr">
         <is>
